--- a/Code/Results/Cases/Case_2_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.207698337745853</v>
+        <v>0.696344631456725</v>
       </c>
       <c r="C2">
-        <v>0.6769326505913114</v>
+        <v>0.2111826404313319</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2093607529584318</v>
+        <v>0.1202738919542483</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.6389482553393009</v>
+        <v>0.4402459494588271</v>
       </c>
       <c r="H2">
-        <v>0.3819848512370925</v>
+        <v>0.5399556131438601</v>
       </c>
       <c r="I2">
-        <v>0.2643572890462238</v>
+        <v>0.3815909797095571</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9531082246894513</v>
+        <v>0.3286786654464038</v>
       </c>
       <c r="N2">
-        <v>0.4993261783531011</v>
+        <v>0.9353039029448524</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.915103367248435</v>
+        <v>0.6098563210493353</v>
       </c>
       <c r="C3">
-        <v>0.588476626218096</v>
+        <v>0.1846755514988843</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1826314803017297</v>
+        <v>0.1143065586289254</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.5667508143927762</v>
+        <v>0.4265770218188862</v>
       </c>
       <c r="H3">
-        <v>0.3562763344287845</v>
+        <v>0.5388796194290819</v>
       </c>
       <c r="I3">
-        <v>0.2514929484689006</v>
+        <v>0.3829905893173908</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.823199370569867</v>
+        <v>0.2927292755368498</v>
       </c>
       <c r="N3">
-        <v>0.534868896458331</v>
+        <v>0.9490907083500488</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.73639942886777</v>
+        <v>0.5567321126492004</v>
       </c>
       <c r="C4">
-        <v>0.5345402923585141</v>
+        <v>0.1683439874708768</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.166660801135798</v>
+        <v>0.1107395920263698</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.524355521380059</v>
+        <v>0.4186560171176694</v>
       </c>
       <c r="H4">
-        <v>0.34158743733785</v>
+        <v>0.5386230858463108</v>
       </c>
       <c r="I4">
-        <v>0.2446269164783459</v>
+        <v>0.3841979447782577</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.744325534665137</v>
+        <v>0.2707506908111057</v>
       </c>
       <c r="N4">
-        <v>0.55784691740147</v>
+        <v>0.9580302143529984</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.663765556236058</v>
+        <v>0.5350788195066798</v>
       </c>
       <c r="C5">
-        <v>0.5126357028437099</v>
+        <v>0.1616744999048478</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1602511486691469</v>
+        <v>0.1093101728013579</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.5075195550342073</v>
+        <v>0.4155458298511121</v>
       </c>
       <c r="H5">
-        <v>0.3358561308255048</v>
+        <v>0.5386198408775869</v>
       </c>
       <c r="I5">
-        <v>0.2420694065112947</v>
+        <v>0.3847770598594877</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7123741991250299</v>
+        <v>0.261817687103381</v>
       </c>
       <c r="N5">
-        <v>0.5674898412540585</v>
+        <v>0.961792291447086</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.651714815429955</v>
+        <v>0.531483028821782</v>
       </c>
       <c r="C6">
-        <v>0.5090024393345516</v>
+        <v>0.1605661724988465</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1591924357553367</v>
+        <v>0.1090742702730054</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.5047492743381241</v>
+        <v>0.4150364660140582</v>
       </c>
       <c r="H6">
-        <v>0.3349192347643424</v>
+        <v>0.5386254104534629</v>
       </c>
       <c r="I6">
-        <v>0.2416587183746906</v>
+        <v>0.3848784709887134</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7070792670088935</v>
+        <v>0.2603357758677447</v>
       </c>
       <c r="N6">
-        <v>0.5691075923403979</v>
+        <v>0.9624241746706197</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.735419159045932</v>
+        <v>0.5564401075912997</v>
       </c>
       <c r="C7">
-        <v>0.5342446010458559</v>
+        <v>0.1682540982702676</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1665739751347246</v>
+        <v>0.1107202169216706</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.5241267406849772</v>
+        <v>0.4186135967871394</v>
       </c>
       <c r="H7">
-        <v>0.341509139191075</v>
+        <v>0.5386226323828822</v>
       </c>
       <c r="I7">
-        <v>0.2445914759128591</v>
+        <v>0.38420540275796</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7438938995372268</v>
+        <v>0.2706301226651533</v>
       </c>
       <c r="N7">
-        <v>0.5579758489790621</v>
+        <v>0.9580804687498841</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.1065832528285</v>
+        <v>0.6665277666840836</v>
       </c>
       <c r="C8">
-        <v>0.6463426593346924</v>
+        <v>0.2020545512467038</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2000451601366819</v>
+        <v>0.1181960744998349</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.6136244859790452</v>
+        <v>0.4354344126698777</v>
       </c>
       <c r="H8">
-        <v>0.3728798565095133</v>
+        <v>0.5395005335414567</v>
       </c>
       <c r="I8">
-        <v>0.2596953381196379</v>
+        <v>0.3820010998871339</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9081097644357428</v>
+        <v>0.3162635058303209</v>
       </c>
       <c r="N8">
-        <v>0.5113347138881643</v>
+        <v>0.9399590674097169</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.844439510582959</v>
+        <v>0.8822486809775683</v>
       </c>
       <c r="C9">
-        <v>0.8701257243100713</v>
+        <v>0.2679012645247951</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2697957948204461</v>
+        <v>0.1336377011825789</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.8067250846012115</v>
+        <v>0.4722081823344553</v>
       </c>
       <c r="H9">
-        <v>0.4441299599996142</v>
+        <v>0.5444444606195731</v>
       </c>
       <c r="I9">
-        <v>0.2984466346804737</v>
+        <v>0.3804579671202291</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.238865736139473</v>
+        <v>0.4065188906039623</v>
       </c>
       <c r="N9">
-        <v>0.4295744993121247</v>
+        <v>0.9081920617540788</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.396437808395376</v>
+        <v>1.040655127644925</v>
       </c>
       <c r="C10">
-        <v>1.038459102787527</v>
+        <v>0.3160306151322345</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.324492391357623</v>
+        <v>0.1454767503955026</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.9627501246446002</v>
+        <v>0.5016007213241949</v>
       </c>
       <c r="H10">
-        <v>0.5039864878190201</v>
+        <v>0.5500644729294066</v>
       </c>
       <c r="I10">
-        <v>0.3339100354648394</v>
+        <v>0.3810447542030744</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.489750876292163</v>
+        <v>0.4733307572301158</v>
       </c>
       <c r="N10">
-        <v>0.3762380165139909</v>
+        <v>0.8871572875003508</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.650652384169177</v>
+        <v>1.11270432345674</v>
       </c>
       <c r="C11">
-        <v>1.116268103227725</v>
+        <v>0.3378760758614874</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3503620236524299</v>
+        <v>0.1509738323944063</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.037656807785893</v>
+        <v>0.5155021557538362</v>
       </c>
       <c r="H11">
-        <v>0.5332399395184382</v>
+        <v>0.553057914211692</v>
       </c>
       <c r="I11">
-        <v>0.3519157006285951</v>
+        <v>0.3816909756147879</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.606236736175987</v>
+        <v>0.5038415621186516</v>
       </c>
       <c r="N11">
-        <v>0.3536388662482999</v>
+        <v>0.878089951822318</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.747451292279209</v>
+        <v>1.139985928716158</v>
       </c>
       <c r="C12">
-        <v>1.145945052688177</v>
+        <v>0.3461415927382347</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3603225905570326</v>
+        <v>0.1530717519622868</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.06666687260676</v>
+        <v>0.5208436667198697</v>
       </c>
       <c r="H12">
-        <v>0.5446452733807803</v>
+        <v>0.5542546696412529</v>
       </c>
       <c r="I12">
-        <v>0.3590364043980614</v>
+        <v>0.3819906778924889</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.650745638977426</v>
+        <v>0.5154126086090542</v>
       </c>
       <c r="N12">
-        <v>0.3453395290149892</v>
+        <v>0.8747286637057421</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.726578717686607</v>
+        <v>1.134110434751449</v>
       </c>
       <c r="C13">
-        <v>1.139543545487328</v>
+        <v>0.3443617698109449</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3581697155217682</v>
+        <v>0.1526191984618208</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.060389015574302</v>
+        <v>0.5196898205137046</v>
       </c>
       <c r="H13">
-        <v>0.542173732357071</v>
+        <v>0.5539941097957666</v>
       </c>
       <c r="I13">
-        <v>0.3574888239971088</v>
+        <v>0.3819236786457623</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.641141123842758</v>
+        <v>0.5129198033905027</v>
       </c>
       <c r="N13">
-        <v>0.3471151173158056</v>
+        <v>0.8754493577315934</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.658604870917031</v>
+        <v>1.114948836673364</v>
       </c>
       <c r="C14">
-        <v>1.11870517288952</v>
+        <v>0.3385562221074849</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3511780562287257</v>
+        <v>0.1511461013960513</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.040030081107119</v>
+        <v>0.5159400491241257</v>
       </c>
       <c r="H14">
-        <v>0.534171472450538</v>
+        <v>0.5531551030925357</v>
       </c>
       <c r="I14">
-        <v>0.3524952644250163</v>
+        <v>0.3817145275846059</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.609890166054569</v>
+        <v>0.5047931710909239</v>
       </c>
       <c r="N14">
-        <v>0.3529507776312357</v>
+        <v>0.8778119661470249</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.617041110309515</v>
+        <v>1.103211552675077</v>
       </c>
       <c r="C15">
-        <v>1.105969830977727</v>
+        <v>0.3349992639528239</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3469175628642205</v>
+        <v>0.1502459168824331</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.027646082278267</v>
+        <v>0.5136533085975827</v>
       </c>
       <c r="H15">
-        <v>0.5293136835318961</v>
+        <v>0.5526494297217397</v>
       </c>
       <c r="I15">
-        <v>0.3494769774913991</v>
+        <v>0.381593591553802</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.59080178571935</v>
+        <v>0.4998176328174537</v>
       </c>
       <c r="N15">
-        <v>0.3565595519968241</v>
+        <v>0.8792685556702615</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.379894010597752</v>
+        <v>1.035946300211776</v>
       </c>
       <c r="C16">
-        <v>1.033401825204862</v>
+        <v>0.3146019919931859</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3228234736118338</v>
+        <v>0.1451197685528385</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.9579404787442769</v>
+        <v>0.5007029958753009</v>
       </c>
       <c r="H16">
-        <v>0.5021184824665426</v>
+        <v>0.5498776680991853</v>
       </c>
       <c r="I16">
-        <v>0.3327737592546001</v>
+        <v>0.3810101928809999</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.482190603382321</v>
+        <v>0.471339202304037</v>
       </c>
       <c r="N16">
-        <v>0.3777500037867902</v>
+        <v>0.8877599675458363</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.235266641134444</v>
+        <v>0.9946782748679652</v>
       </c>
       <c r="C17">
-        <v>0.9892233089200886</v>
+        <v>0.3020765172999518</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3083106059213279</v>
+        <v>0.1420037755997328</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.9162388643844963</v>
+        <v>0.4928950396395209</v>
       </c>
       <c r="H17">
-        <v>0.4859784519247512</v>
+        <v>0.5482894464335573</v>
       </c>
       <c r="I17">
-        <v>0.3230290670671465</v>
+        <v>0.3807497619340836</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.416205042999707</v>
+        <v>0.4538990029109726</v>
       </c>
       <c r="N17">
-        <v>0.3911888884187071</v>
+        <v>0.8930977585530293</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.152367635351936</v>
+        <v>0.9709410107109306</v>
       </c>
       <c r="C18">
-        <v>0.9639267661934525</v>
+        <v>0.294867591885918</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3000547010471806</v>
+        <v>0.1402220118284916</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.892617902121259</v>
+        <v>0.488453992048278</v>
       </c>
       <c r="H18">
-        <v>0.4768832766714723</v>
+        <v>0.5474170404857972</v>
       </c>
       <c r="I18">
-        <v>0.3175983262026492</v>
+        <v>0.3806356423251458</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.378469830103342</v>
+        <v>0.4438789245604795</v>
       </c>
       <c r="N18">
-        <v>0.3990739335448588</v>
+        <v>0.8962151047850995</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.124346231060883</v>
+        <v>0.9629038213453782</v>
       </c>
       <c r="C19">
-        <v>0.9553803266178136</v>
+        <v>0.2924259788357233</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2972744731374206</v>
+        <v>0.1396205278065494</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.8846806025755001</v>
+        <v>0.4869588654577655</v>
       </c>
       <c r="H19">
-        <v>0.4738350673337237</v>
+        <v>0.5471287056817857</v>
       </c>
       <c r="I19">
-        <v>0.3157885300923908</v>
+        <v>0.3806031166209394</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.365729062291535</v>
+        <v>0.4404881881824565</v>
       </c>
       <c r="N19">
-        <v>0.4017698023527956</v>
+        <v>0.8972786835494375</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.250632187899271</v>
+        <v>0.9990714311950342</v>
       </c>
       <c r="C20">
-        <v>0.9939141710303545</v>
+        <v>0.3034103509565114</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3098459010124373</v>
+        <v>0.1423343925160836</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.920639778258888</v>
+        <v>0.4937210397792313</v>
       </c>
       <c r="H20">
-        <v>0.4876768607726518</v>
+        <v>0.5484542591719475</v>
       </c>
       <c r="I20">
-        <v>0.3240481542880715</v>
+        <v>0.3807737899285613</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.423206353762112</v>
+        <v>0.4557543945223728</v>
       </c>
       <c r="N20">
-        <v>0.3897420846403925</v>
+        <v>0.8925246561493445</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.678555226961748</v>
+        <v>1.120577115573951</v>
       </c>
       <c r="C21">
-        <v>1.124819845733185</v>
+        <v>0.3402616379575534</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3532270271215481</v>
+        <v>0.1515783413447096</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>1.045991826644325</v>
+        <v>0.5170393406228015</v>
       </c>
       <c r="H21">
-        <v>0.5365127259406961</v>
+        <v>0.5533998212905402</v>
       </c>
       <c r="I21">
-        <v>0.3539535081843468</v>
+        <v>0.3817744642428096</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.619058016606644</v>
+        <v>0.5071796886834221</v>
       </c>
       <c r="N21">
-        <v>0.3512295250935686</v>
+        <v>0.8771160465361554</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.961383538017458</v>
+        <v>1.19997710976935</v>
       </c>
       <c r="C22">
-        <v>1.21163131026259</v>
+        <v>0.3643060183462126</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3825489794636212</v>
+        <v>0.1577148961829522</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.131716587402593</v>
+        <v>0.532730475885046</v>
       </c>
       <c r="H22">
-        <v>0.5703596771933519</v>
+        <v>0.5570006140681585</v>
       </c>
       <c r="I22">
-        <v>0.375278589781388</v>
+        <v>0.3827492104490346</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.749412037958194</v>
+        <v>0.5408898943759652</v>
       </c>
       <c r="N22">
-        <v>0.3275762784593752</v>
+        <v>0.867467235106723</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.810112942138176</v>
+        <v>1.157600949375308</v>
       </c>
       <c r="C23">
-        <v>1.165170754128525</v>
+        <v>0.3514767004772352</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3668025272377733</v>
+        <v>0.1544309102276813</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>1.085587482421431</v>
+        <v>0.5243141860800762</v>
       </c>
       <c r="H23">
-        <v>0.5521052076537103</v>
+        <v>0.5550449506811646</v>
       </c>
       <c r="I23">
-        <v>0.3637222802181412</v>
+        <v>0.3821994720853041</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.679602933113543</v>
+        <v>0.5228887878975428</v>
       </c>
       <c r="N23">
-        <v>0.3400547907386802</v>
+        <v>0.8725783422292999</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.243684654438994</v>
+        <v>0.9970853217298554</v>
       </c>
       <c r="C24">
-        <v>0.9917931163045921</v>
+        <v>0.3028073492718306</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3091515224726535</v>
+        <v>0.1421848905349563</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.9186490288241913</v>
+        <v>0.4933474561433684</v>
       </c>
       <c r="H24">
-        <v>0.4869084399069692</v>
+        <v>0.5483796206265481</v>
       </c>
       <c r="I24">
-        <v>0.3235868928718588</v>
+        <v>0.3807628159922771</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.420040440229471</v>
+        <v>0.4549155516857297</v>
       </c>
       <c r="N24">
-        <v>0.3903956912704309</v>
+        <v>0.8927836044289634</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.643388125994306</v>
+        <v>0.8239062183641295</v>
       </c>
       <c r="C25">
-        <v>0.8090159726509967</v>
+        <v>0.2501328496340136</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2503942847054503</v>
+        <v>0.1293748492246962</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.752267771485009</v>
+        <v>0.4618475985685393</v>
       </c>
       <c r="H25">
-        <v>0.4236591155603833</v>
+        <v>0.5427596258246012</v>
       </c>
       <c r="I25">
-        <v>0.2868463345808507</v>
+        <v>0.3805751736322094</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.148203747816673</v>
+        <v>0.3820167798509928</v>
       </c>
       <c r="N25">
-        <v>0.4505741934054406</v>
+        <v>0.9163817050226513</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.696344631456725</v>
+        <v>2.20769833774574</v>
       </c>
       <c r="C2">
-        <v>0.2111826404313319</v>
+        <v>0.6769326505913114</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1202738919542483</v>
+        <v>0.2093607529584247</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.4402459494588271</v>
+        <v>0.6389482553392867</v>
       </c>
       <c r="H2">
-        <v>0.5399556131438601</v>
+        <v>0.3819848512369788</v>
       </c>
       <c r="I2">
-        <v>0.3815909797095571</v>
+        <v>0.2643572890462202</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3286786654464038</v>
+        <v>0.9531082246894655</v>
       </c>
       <c r="N2">
-        <v>0.9353039029448524</v>
+        <v>0.499326178353158</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6098563210493353</v>
+        <v>1.91510336724852</v>
       </c>
       <c r="C3">
-        <v>0.1846755514988843</v>
+        <v>0.5884766262178971</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1143065586289254</v>
+        <v>0.1826314803017084</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.4265770218188862</v>
+        <v>0.5667508143927762</v>
       </c>
       <c r="H3">
-        <v>0.5388796194290819</v>
+        <v>0.3562763344287987</v>
       </c>
       <c r="I3">
-        <v>0.3829905893173908</v>
+        <v>0.2514929484689006</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2927292755368498</v>
+        <v>0.8231993705698457</v>
       </c>
       <c r="N3">
-        <v>0.9490907083500488</v>
+        <v>0.5348688964582671</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5567321126492004</v>
+        <v>1.736399428867941</v>
       </c>
       <c r="C4">
-        <v>0.1683439874708768</v>
+        <v>0.5345402923584288</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1107395920263698</v>
+        <v>0.1666608011357624</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.4186560171176694</v>
+        <v>0.5243555213799738</v>
       </c>
       <c r="H4">
-        <v>0.5386230858463108</v>
+        <v>0.3415874373378358</v>
       </c>
       <c r="I4">
-        <v>0.3841979447782577</v>
+        <v>0.2446269164783459</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2707506908111057</v>
+        <v>0.7443255346651441</v>
       </c>
       <c r="N4">
-        <v>0.9580302143529984</v>
+        <v>0.5578469174014486</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5350788195066798</v>
+        <v>1.663765556235973</v>
       </c>
       <c r="C5">
-        <v>0.1616744999048478</v>
+        <v>0.5126357028434825</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1093101728013579</v>
+        <v>0.1602511486691469</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.4155458298511121</v>
+        <v>0.5075195550342215</v>
       </c>
       <c r="H5">
-        <v>0.5386198408775869</v>
+        <v>0.3358561308253911</v>
       </c>
       <c r="I5">
-        <v>0.3847770598594877</v>
+        <v>0.2420694065112947</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.261817687103381</v>
+        <v>0.7123741991250299</v>
       </c>
       <c r="N5">
-        <v>0.961792291447086</v>
+        <v>0.5674898412541083</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.531483028821782</v>
+        <v>1.651714815430068</v>
       </c>
       <c r="C6">
-        <v>0.1605661724988465</v>
+        <v>0.50900243933512</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1090742702730054</v>
+        <v>0.1591924357553225</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.4150364660140582</v>
+        <v>0.5047492743381241</v>
       </c>
       <c r="H6">
-        <v>0.5386254104534629</v>
+        <v>0.3349192347643566</v>
       </c>
       <c r="I6">
-        <v>0.3848784709887134</v>
+        <v>0.2416587183747012</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2603357758677447</v>
+        <v>0.7070792670089077</v>
       </c>
       <c r="N6">
-        <v>0.9624241746706197</v>
+        <v>0.5691075923404014</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5564401075912997</v>
+        <v>1.735419159045904</v>
       </c>
       <c r="C7">
-        <v>0.1682540982702676</v>
+        <v>0.5342446010453727</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1107202169216706</v>
+        <v>0.1665739751347317</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.4186135967871394</v>
+        <v>0.5241267406849346</v>
       </c>
       <c r="H7">
-        <v>0.5386226323828822</v>
+        <v>0.341509139191075</v>
       </c>
       <c r="I7">
-        <v>0.38420540275796</v>
+        <v>0.2445914759128591</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2706301226651533</v>
+        <v>0.7438938995372268</v>
       </c>
       <c r="N7">
-        <v>0.9580804687498841</v>
+        <v>0.5579758489789945</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6665277666840836</v>
+        <v>2.106583252828557</v>
       </c>
       <c r="C8">
-        <v>0.2020545512467038</v>
+        <v>0.6463426593345787</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1181960744998349</v>
+        <v>0.2000451601367033</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.4354344126698777</v>
+        <v>0.6136244859790452</v>
       </c>
       <c r="H8">
-        <v>0.5395005335414567</v>
+        <v>0.3728798565095133</v>
       </c>
       <c r="I8">
-        <v>0.3820010998871339</v>
+        <v>0.2596953381196379</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3162635058303209</v>
+        <v>0.9081097644357641</v>
       </c>
       <c r="N8">
-        <v>0.9399590674097169</v>
+        <v>0.5113347138881501</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8822486809775683</v>
+        <v>2.844439510583015</v>
       </c>
       <c r="C9">
-        <v>0.2679012645247951</v>
+        <v>0.870125724310185</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1336377011825789</v>
+        <v>0.2697957948204603</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.4722081823344553</v>
+        <v>0.8067250846011831</v>
       </c>
       <c r="H9">
-        <v>0.5444444606195731</v>
+        <v>0.4441299599996142</v>
       </c>
       <c r="I9">
-        <v>0.3804579671202291</v>
+        <v>0.298446634680495</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4065188906039623</v>
+        <v>1.238865736139502</v>
       </c>
       <c r="N9">
-        <v>0.9081920617540788</v>
+        <v>0.4295744993121211</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.040655127644925</v>
+        <v>3.396437808395206</v>
       </c>
       <c r="C10">
-        <v>0.3160306151322345</v>
+        <v>1.038459102787243</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1454767503955026</v>
+        <v>0.3244923913576301</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.5016007213241949</v>
+        <v>0.9627501246446286</v>
       </c>
       <c r="H10">
-        <v>0.5500644729294066</v>
+        <v>0.5039864878191338</v>
       </c>
       <c r="I10">
-        <v>0.3810447542030744</v>
+        <v>0.3339100354648394</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4733307572301158</v>
+        <v>1.489750876292192</v>
       </c>
       <c r="N10">
-        <v>0.8871572875003508</v>
+        <v>0.3762380165139696</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.11270432345674</v>
+        <v>3.650652384169177</v>
       </c>
       <c r="C11">
-        <v>0.3378760758614874</v>
+        <v>1.116268103227611</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1509738323944063</v>
+        <v>0.3503620236524441</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5155021557538362</v>
+        <v>1.037656807785794</v>
       </c>
       <c r="H11">
-        <v>0.553057914211692</v>
+        <v>0.5332399395184382</v>
       </c>
       <c r="I11">
-        <v>0.3816909756147879</v>
+        <v>0.3519157006285951</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5038415621186516</v>
+        <v>1.606236736175958</v>
       </c>
       <c r="N11">
-        <v>0.878089951822318</v>
+        <v>0.3536388662482928</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.139985928716158</v>
+        <v>3.747451292279152</v>
       </c>
       <c r="C12">
-        <v>0.3461415927382347</v>
+        <v>1.145945052688262</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1530717519622868</v>
+        <v>0.3603225905569971</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.5208436667198697</v>
+        <v>1.066666872606746</v>
       </c>
       <c r="H12">
-        <v>0.5542546696412529</v>
+        <v>0.544645273380894</v>
       </c>
       <c r="I12">
-        <v>0.3819906778924889</v>
+        <v>0.3590364043980827</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5154126086090542</v>
+        <v>1.650745638977426</v>
       </c>
       <c r="N12">
-        <v>0.8747286637057421</v>
+        <v>0.3453395290150425</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.134110434751449</v>
+        <v>3.726578717686607</v>
       </c>
       <c r="C13">
-        <v>0.3443617698109449</v>
+        <v>1.139543545487328</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1526191984618208</v>
+        <v>0.3581697155217256</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.5196898205137046</v>
+        <v>1.060389015574316</v>
       </c>
       <c r="H13">
-        <v>0.5539941097957666</v>
+        <v>0.542173732357071</v>
       </c>
       <c r="I13">
-        <v>0.3819236786457623</v>
+        <v>0.3574888239971017</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5129198033905027</v>
+        <v>1.641141123842772</v>
       </c>
       <c r="N13">
-        <v>0.8754493577315934</v>
+        <v>0.3471151173157914</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.114948836673364</v>
+        <v>3.658604870916861</v>
       </c>
       <c r="C14">
-        <v>0.3385562221074849</v>
+        <v>1.118705172889349</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1511461013960513</v>
+        <v>0.3511780562287257</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.5159400491241257</v>
+        <v>1.040030081107119</v>
       </c>
       <c r="H14">
-        <v>0.5531551030925357</v>
+        <v>0.534171472450538</v>
       </c>
       <c r="I14">
-        <v>0.3817145275846059</v>
+        <v>0.3524952644250234</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5047931710909239</v>
+        <v>1.609890166054569</v>
       </c>
       <c r="N14">
-        <v>0.8778119661470249</v>
+        <v>0.352950777631289</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.103211552675077</v>
+        <v>3.617041110309628</v>
       </c>
       <c r="C15">
-        <v>0.3349992639528239</v>
+        <v>1.105969830977614</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1502459168824331</v>
+        <v>0.3469175628641992</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.5136533085975827</v>
+        <v>1.02764608227821</v>
       </c>
       <c r="H15">
-        <v>0.5526494297217397</v>
+        <v>0.5293136835317966</v>
       </c>
       <c r="I15">
-        <v>0.381593591553802</v>
+        <v>0.3494769774914204</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4998176328174537</v>
+        <v>1.590801785719322</v>
       </c>
       <c r="N15">
-        <v>0.8792685556702615</v>
+        <v>0.3565595519968205</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.035946300211776</v>
+        <v>3.379894010597638</v>
       </c>
       <c r="C16">
-        <v>0.3146019919931859</v>
+        <v>1.033401825204663</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1451197685528385</v>
+        <v>0.3228234736118125</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.5007029958753009</v>
+        <v>0.9579404787442769</v>
       </c>
       <c r="H16">
-        <v>0.5498776680991853</v>
+        <v>0.5021184824664289</v>
       </c>
       <c r="I16">
-        <v>0.3810101928809999</v>
+        <v>0.3327737592546214</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.471339202304037</v>
+        <v>1.482190603382321</v>
       </c>
       <c r="N16">
-        <v>0.8877599675458363</v>
+        <v>0.3777500037867867</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9946782748679652</v>
+        <v>3.235266641134444</v>
       </c>
       <c r="C17">
-        <v>0.3020765172999518</v>
+        <v>0.9892233089200602</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1420037755997328</v>
+        <v>0.3083106059213137</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.4928950396395209</v>
+        <v>0.9162388643844963</v>
       </c>
       <c r="H17">
-        <v>0.5482894464335573</v>
+        <v>0.485978451924737</v>
       </c>
       <c r="I17">
-        <v>0.3807497619340836</v>
+        <v>0.3230290670671607</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4538990029109726</v>
+        <v>1.416205042999707</v>
       </c>
       <c r="N17">
-        <v>0.8930977585530293</v>
+        <v>0.3911888884187</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9709410107109306</v>
+        <v>3.15236763535205</v>
       </c>
       <c r="C18">
-        <v>0.294867591885918</v>
+        <v>0.9639267661935946</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1402220118284916</v>
+        <v>0.3000547010471664</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.488453992048278</v>
+        <v>0.8926179021211595</v>
       </c>
       <c r="H18">
-        <v>0.5474170404857972</v>
+        <v>0.4768832766714723</v>
       </c>
       <c r="I18">
-        <v>0.3806356423251458</v>
+        <v>0.3175983262026563</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4438789245604795</v>
+        <v>1.378469830103327</v>
       </c>
       <c r="N18">
-        <v>0.8962151047850995</v>
+        <v>0.3990739335448623</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9629038213453782</v>
+        <v>3.12434623106094</v>
       </c>
       <c r="C19">
-        <v>0.2924259788357233</v>
+        <v>0.9553803266175009</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1396205278065494</v>
+        <v>0.2972744731373709</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.4869588654577655</v>
+        <v>0.8846806025754574</v>
       </c>
       <c r="H19">
-        <v>0.5471287056817857</v>
+        <v>0.4738350673337237</v>
       </c>
       <c r="I19">
-        <v>0.3806031166209394</v>
+        <v>0.3157885300923837</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4404881881824565</v>
+        <v>1.365729062291521</v>
       </c>
       <c r="N19">
-        <v>0.8972786835494375</v>
+        <v>0.4017698023528027</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9990714311950342</v>
+        <v>3.250632187899214</v>
       </c>
       <c r="C20">
-        <v>0.3034103509565114</v>
+        <v>0.9939141710304682</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1423343925160836</v>
+        <v>0.3098459010124373</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.4937210397792313</v>
+        <v>0.9206397782589164</v>
       </c>
       <c r="H20">
-        <v>0.5484542591719475</v>
+        <v>0.4876768607725381</v>
       </c>
       <c r="I20">
-        <v>0.3807737899285613</v>
+        <v>0.3240481542880786</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4557543945223728</v>
+        <v>1.423206353762083</v>
       </c>
       <c r="N20">
-        <v>0.8925246561493445</v>
+        <v>0.3897420846403783</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.120577115573951</v>
+        <v>3.678555226961407</v>
       </c>
       <c r="C21">
-        <v>0.3402616379575534</v>
+        <v>1.124819845732986</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1515783413447096</v>
+        <v>0.3532270271215836</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.5170393406228015</v>
+        <v>1.04599182664434</v>
       </c>
       <c r="H21">
-        <v>0.5533998212905402</v>
+        <v>0.5365127259407956</v>
       </c>
       <c r="I21">
-        <v>0.3817744642428096</v>
+        <v>0.3539535081843539</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5071796886834221</v>
+        <v>1.619058016606616</v>
       </c>
       <c r="N21">
-        <v>0.8771160465361554</v>
+        <v>0.3512295250935544</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.19997710976935</v>
+        <v>3.961383538017515</v>
       </c>
       <c r="C22">
-        <v>0.3643060183462126</v>
+        <v>1.211631310262931</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1577148961829522</v>
+        <v>0.3825489794636212</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.532730475885046</v>
+        <v>1.131716587402593</v>
       </c>
       <c r="H22">
-        <v>0.5570006140681585</v>
+        <v>0.5703596771933519</v>
       </c>
       <c r="I22">
-        <v>0.3827492104490346</v>
+        <v>0.3752785897813808</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5408898943759652</v>
+        <v>1.74941203795818</v>
       </c>
       <c r="N22">
-        <v>0.867467235106723</v>
+        <v>0.3275762784593681</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.157600949375308</v>
+        <v>3.810112942138005</v>
       </c>
       <c r="C23">
-        <v>0.3514767004772352</v>
+        <v>1.165170754128638</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1544309102276813</v>
+        <v>0.3668025272377733</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.5243141860800762</v>
+        <v>1.085587482421488</v>
       </c>
       <c r="H23">
-        <v>0.5550449506811646</v>
+        <v>0.552105207653824</v>
       </c>
       <c r="I23">
-        <v>0.3821994720853041</v>
+        <v>0.3637222802181554</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5228887878975428</v>
+        <v>1.679602933113514</v>
       </c>
       <c r="N23">
-        <v>0.8725783422292999</v>
+        <v>0.3400547907386837</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9970853217298554</v>
+        <v>3.243684654438937</v>
       </c>
       <c r="C24">
-        <v>0.3028073492718306</v>
+        <v>0.9917931163045353</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1421848905349563</v>
+        <v>0.3091515224726749</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.4933474561433684</v>
+        <v>0.9186490288240918</v>
       </c>
       <c r="H24">
-        <v>0.5483796206265481</v>
+        <v>0.4869084399068413</v>
       </c>
       <c r="I24">
-        <v>0.3807628159922771</v>
+        <v>0.323586892871873</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4549155516857297</v>
+        <v>1.420040440229471</v>
       </c>
       <c r="N24">
-        <v>0.8927836044289634</v>
+        <v>0.3903956912704345</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8239062183641295</v>
+        <v>2.643388125994193</v>
       </c>
       <c r="C25">
-        <v>0.2501328496340136</v>
+        <v>0.8090159726511956</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1293748492246962</v>
+        <v>0.2503942847054361</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.4618475985685393</v>
+        <v>0.7522677714850516</v>
       </c>
       <c r="H25">
-        <v>0.5427596258246012</v>
+        <v>0.4236591155604117</v>
       </c>
       <c r="I25">
-        <v>0.3805751736322094</v>
+        <v>0.2868463345808507</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3820167798509928</v>
+        <v>1.148203747816673</v>
       </c>
       <c r="N25">
-        <v>0.9163817050226513</v>
+        <v>0.450574193405366</v>
       </c>
       <c r="O25">
         <v>0</v>
